--- a/biology/Botanique/Auriscalpiaceae/Auriscalpiaceae.xlsx
+++ b/biology/Botanique/Auriscalpiaceae/Auriscalpiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Auriscalpiaceae sont une famille de champignons de l'ordre des Russulales.
 </t>
@@ -511,7 +523,9 @@
           <t>Position des Auriscalpiaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycetes
@@ -522,8 +536,43 @@
 Bondarzewiaceae
 Albatrellaceae
 Auriscalpiaceae
-Gloeodontia
-Phylogramme détaillé des Auriscalpiaceae
+Gloeodontia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Position des Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogramme détaillé des Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 Russulales
 Stereaceae
@@ -537,9 +586,43 @@
 Dentipratulum
 Auriscalpium
 Gloiodon
-Gloeodontia
-Liste des genres Linnéens des Auriscalpiaceae
-D'après la 10e édition du Dictionary of the Fungi[1] (2007), cette famille est constituée des genres suivants :
+Gloeodontia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Position des Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres Linnéens des Auriscalpiaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la 10e édition du Dictionary of the Fungi (2007), cette famille est constituée des genres suivants :
 Amylonotus  Ryvarden 1975
 Auriscalpium  Gray 1821
 Clavicorona  Doty 1947
